--- a/homework10.xlsx
+++ b/homework10.xlsx
@@ -82,44 +82,6 @@
     <author>Keith Lewis</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>f exp(-sigma^2 t/2 - sigma B_t)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>payoff for F~</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Keith Lewis</author>
-  </authors>
-  <commentList>
     <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -128,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>payoff - alpha (forward - E(forward))
 Formula (3) in the reading</t>
@@ -140,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>f</t>
   </si>
@@ -221,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +212,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -357,15 +332,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -746,7 +721,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +754,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="6">
-        <f ca="1">NORMSINV(RAND())*SQRT(t)</f>
-        <v>0.18731664921787144</v>
+        <f ca="1">C9</f>
+        <v>0.27503872748937824</v>
       </c>
       <c r="D3">
         <f t="array" aca="1" ref="D3:E3" ca="1">_xll.TUKHI.STDEV(C3)</f>
-        <v>-8.3664939411637954E-3</v>
+        <v>2.7135578551322321E-3</v>
       </c>
       <c r="E3">
         <f ca="1"/>
-        <v>0.4926610062554499</v>
+        <v>0.50083531897939504</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -799,11 +774,11 @@
       </c>
       <c r="H3">
         <f ca="1">F3-E3/SQRT(count)</f>
-        <v>-6.6894182260432014E-3</v>
+        <v>-4.4867918944149288E-3</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" ca="1" si="0">2*F3-H3</f>
-        <v>6.6894182260432014E-3</v>
+        <v>4.4867918944149288E-3</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -811,16 +786,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f ca="1">f*EXP(-sigma^2*t/2+sigma*B_t)</f>
-        <v>104.33777948452064</v>
+        <f ca="1">f*EXP(-(sigma^2)*t/2+sigma*B_t)</f>
+        <v>105.12792390256021</v>
       </c>
       <c r="D4">
         <f t="array" aca="1" ref="D4:E4" ca="1">_xll.TUKHI.STDEV(F_t)</f>
-        <v>100.82158804989425</v>
+        <v>100.05624661081328</v>
       </c>
       <c r="E4">
         <f ca="1"/>
-        <v>9.9699143472757203</v>
+        <v>10.056999803043116</v>
       </c>
       <c r="F4">
         <f>f</f>
@@ -832,11 +807,11 @@
       </c>
       <c r="H4">
         <f ca="1">F4-E4/SQRT(count)</f>
-        <v>99.864627145440906</v>
+        <v>99.909903188755976</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>100.13537285455909</v>
+        <v>100.09009681124402</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -849,11 +824,11 @@
       </c>
       <c r="D5">
         <f t="array" aca="1" ref="D5:E5" ca="1">_xll.TUKHI.STDEV(C5)</f>
-        <v>3.5305610544634947</v>
+        <v>3.9683917021645665</v>
       </c>
       <c r="E5">
         <f ca="1"/>
-        <v>5.1687846363918553</v>
+        <v>5.4870431109281128</v>
       </c>
       <c r="F5">
         <f>value</f>
@@ -861,11 +836,11 @@
       </c>
       <c r="H5">
         <f ca="1">F5-E5/SQRT(count)</f>
-        <v>3.9175787060748344</v>
+        <v>3.9386048489775862</v>
       </c>
       <c r="I5">
         <f ca="1">2*F5-H5</f>
-        <v>4.0579436292741491</v>
+        <v>4.0369174863713972</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -874,41 +849,42 @@
       </c>
       <c r="C6">
         <f ca="1">_xll.TUKHI.COUNT()</f>
-        <v>5424</v>
+        <v>12460</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>_xll.GSL.RNG(_xll.GSL_RNG_MT19937())</f>
-        <v>3.277018399497641E-218</v>
+        <v>2.8460486978883334E-216</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <f ca="1">_xll.GSL.RAN.GAUSSIAN(C8,SQRT(t))</f>
-        <v>-0.11745618305668805</v>
+        <v>0.27503872748937824</v>
       </c>
       <c r="D9">
         <f t="array" aca="1" ref="D9:E9" ca="1">_xll.TUKHI.STDEV(C9)</f>
-        <v>1.905781053654135E-3</v>
+        <v>2.7135578551322321E-3</v>
       </c>
       <c r="E9">
         <f ca="1"/>
-        <v>0.48949180001011772</v>
+        <v>0.50083531897939504</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <f>SQRT(t)</f>
+        <v>0.5</v>
       </c>
       <c r="H9">
         <f ca="1">F9-E9/SQRT(count)</f>
-        <v>-6.6463863121096218E-3</v>
+        <v>-4.4867918944149288E-3</v>
       </c>
       <c r="I9">
         <f ca="1">2*F9-H9</f>
-        <v>6.6463863121096218E-3</v>
+        <v>4.4867918944149288E-3</v>
       </c>
     </row>
   </sheetData>
@@ -918,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,50 +906,65 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3">
         <f ca="1">_xll.GSL.RAN.GAUSSIAN(D3,SQRT(t))</f>
-        <v>0.44677777276040903</v>
+        <v>0.99648271676551248</v>
       </c>
       <c r="D3">
         <f>_xll.GSL.RNG(_xll.GSL_RNG_MT19937())</f>
-        <v>3.2775025286556375E-218</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.845816315892495E-216</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
         <f ca="1">-C3</f>
-        <v>-0.44677777276040903</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-0.99648271676551248</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5">
         <f ca="1">f*EXP(-sigma*sigma*t/2+sigma*C3)</f>
-        <v>108.80156739696443</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>121.44563685268228</v>
+      </c>
+      <c r="G5">
+        <f ca="1">C5*C6</f>
+        <v>9900.4983374916828</v>
+      </c>
+      <c r="H5">
+        <f ca="1">_xll.TUKHI.AVERAGE(G5)</f>
+        <v>9900.498337491681</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6">
+        <f ca="1">f*EXP(-sigma*sigma*t/2+sigma*C4)</f>
+        <v>81.522058709291684</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f ca="1">_xll.TUKHI.AVERAGE(C5)</f>
+        <v>99.860772803942282</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -981,49 +972,62 @@
         <f ca="1">MAX(k-C5,0)</f>
         <v>0</v>
       </c>
-      <c r="D7" t="e">
+      <c r="D7">
         <f t="array" aca="1" ref="D7:E7" ca="1">_xll.TUKHI.STDEV(C7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" t="e">
+        <v>4.0388181019206115</v>
+      </c>
+      <c r="E7">
         <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5.5495799572245534</v>
+      </c>
+      <c r="H7">
+        <f ca="1">_xll.TUKHI.AVERAGE(C6)</f>
+        <v>100.13726251148005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8">
+        <f ca="1">MAX(k-C6,0)</f>
+        <v>18.477941290708316</v>
+      </c>
       <c r="D8">
         <f t="array" aca="1" ref="D8:E8" ca="1">_xll.TUKHI.STDEV(C8)</f>
-        <v>3.9442442789703027</v>
+        <v>3.9079206324980986</v>
       </c>
       <c r="E8">
         <f ca="1"/>
-        <v>5.4749423738542946</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5.4631949060517035</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <f ca="1">H5-H6*H7</f>
+        <v>-99.286083375955059</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9">
         <f ca="1">(C7+C8)/2</f>
-        <v>0</v>
-      </c>
-      <c r="D9" t="e">
+        <v>9.2389706453541578</v>
+      </c>
+      <c r="D9">
         <f t="array" aca="1" ref="D9:E9" ca="1">_xll.TUKHI.STDEV(C9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" t="e">
+        <v>3.9733693672093717</v>
+      </c>
+      <c r="E9">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>2.6967546059190779</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,7 +1036,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,11 +1050,11 @@
       </c>
       <c r="C2">
         <f ca="1">_xll.GSL.RAN.GAUSSIAN(D2,SQRT(t))</f>
-        <v>4.5895626192773542E-2</v>
+        <v>-0.11133781611371737</v>
       </c>
       <c r="D2">
         <f>_xll.GSL.RNG(_xll.GSL_RNG_MT19937())</f>
-        <v>3.2791969807086256E-218</v>
+        <v>2.8486823605078348E-216</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1059,7 +1063,7 @@
       </c>
       <c r="C3">
         <f ca="1">f*EXP(-sigma*sigma*t/2+sigma*C2)</f>
-        <v>100.41878699599529</v>
+        <v>97.310084069205743</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -1068,15 +1072,15 @@
       </c>
       <c r="C4">
         <f ca="1">MAX(k-C3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" t="e">
+        <v>2.6899159307942568</v>
+      </c>
+      <c r="D4">
         <f t="array" aca="1" ref="D4:E4" ca="1">_xll.TUKHI.STDEV(C4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
+        <v>3.9384215528255844</v>
+      </c>
+      <c r="E4">
         <f ca="1"/>
-        <v>#NUM!</v>
+        <v>5.4820927193111357</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1107,15 +1111,15 @@
       </c>
       <c r="C7">
         <f ca="1">a+b*C3</f>
-        <v>-0.41878699599529057</v>
-      </c>
-      <c r="D7" t="e">
+        <v>2.6899159307942568</v>
+      </c>
+      <c r="D7">
         <f t="array" aca="1" ref="D7:E7" ca="1">_xll.TUKHI.STDEV(C7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
+        <v>-2.0954139842687257E-2</v>
+      </c>
+      <c r="E7">
         <f ca="1"/>
-        <v>#NUM!</v>
+        <v>9.9702887920040801</v>
       </c>
       <c r="F7">
         <f>a+b*f</f>
@@ -1132,28 +1136,28 @@
       </c>
       <c r="C8">
         <f ca="1">C4*C7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" t="e">
+        <v>7.2356477147407334</v>
+      </c>
+      <c r="D8">
         <f t="array" aca="1" ref="D8:E8" ca="1">_xll.TUKHI.STDEV(C8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
+        <v>45.56400669913625</v>
+      </c>
+      <c r="E8">
         <f ca="1"/>
-        <v>#NUM!</v>
+        <v>94.118177149986309</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="e">
+      <c r="D10">
         <f ca="1">D8-D4*D7</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
+        <v>45.646532935113612</v>
+      </c>
+      <c r="E10">
         <f ca="1">D10/(E4*E7)</f>
-        <v>#NUM!</v>
+        <v>0.83512922511325682</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1164,22 +1168,25 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <f ca="1">IFERROR(D10/(E8^2),0)</f>
-        <v>0</v>
+        <f ca="1">IFERROR(D10/(E7^2),0)</f>
+        <v>0.45918989311011543</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <f ca="1">C4-C11*(C7-F7)</f>
+        <v>1.4547337220576453</v>
+      </c>
       <c r="D12">
         <f t="array" aca="1" ref="D12:E12" ca="1">_xll.TUKHI.STDEV(C12)</f>
-        <v>1.7513243799393658</v>
+        <v>3.9472981189494458</v>
       </c>
       <c r="E12">
         <f ca="1"/>
-        <v>4.112126359848002</v>
+        <v>3.0134363076850694</v>
       </c>
     </row>
   </sheetData>
@@ -1196,15 +1203,15 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.TUKHI.RUN">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
